--- a/nif_reader_3/src/btpy/res/example.xlsx
+++ b/nif_reader_3/src/btpy/res/example.xlsx
@@ -27,36 +27,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>laura</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>shark</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>red</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>arturo</t>
+  </si>
+  <si>
+    <t>españa</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>andrea</t>
+  </si>
+  <si>
+    <t>argentina</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>jhon</t>
+  </si>
+  <si>
+    <t>reino unido</t>
+  </si>
+  <si>
+    <t>han</t>
+  </si>
+  <si>
+    <t>china</t>
   </si>
 </sst>
 </file>
@@ -991,48 +1003,82 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
